--- a/database/industries/urea/shapdis/income/quarterly/rial.xlsx
+++ b/database/industries/urea/shapdis/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7550B1-2A71-4560-A33B-D4428AE52851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789EFEDA-DB76-4A58-960C-99564680258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپدیس-پتروشیمی پردیس</t>
@@ -37,27 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1398/12</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل اول منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +46,28 @@
     <t>فصل سوم منتهی به 1401/03</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-02-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-04-29 (2)</t>
-  </si>
-  <si>
-    <t>1400-09-27 (9)</t>
-  </si>
-  <si>
-    <t>1400-10-29 (2)</t>
-  </si>
-  <si>
-    <t>1401-03-21 (4)</t>
-  </si>
-  <si>
-    <t>1401-05-19 (3)</t>
-  </si>
-  <si>
-    <t>1401-05-19 (7)</t>
-  </si>
-  <si>
-    <t>1400-10-29</t>
+    <t>1401-10-28 (2)</t>
   </si>
   <si>
     <t>1401-03-21 (2)</t>
   </si>
   <si>
     <t>1401-05-19 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -615,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>19316711</v>
+        <v>94387382</v>
       </c>
       <c r="E11" s="13">
-        <v>17894438</v>
+        <v>66986463</v>
       </c>
       <c r="F11" s="13">
-        <v>28185473</v>
+        <v>128059977</v>
       </c>
       <c r="G11" s="13">
-        <v>46810537</v>
+        <v>142149002</v>
       </c>
       <c r="H11" s="13">
-        <v>41995653</v>
-      </c>
-      <c r="I11" s="13">
-        <v>47934192</v>
-      </c>
-      <c r="J11" s="13">
-        <v>60658299</v>
-      </c>
-      <c r="K11" s="13">
-        <v>94387381</v>
-      </c>
-      <c r="L11" s="13">
-        <v>66986463</v>
-      </c>
-      <c r="M11" s="13">
-        <v>128059977</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>110842812</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-10556552</v>
+        <v>-37794904</v>
       </c>
       <c r="E12" s="11">
-        <v>-6262261</v>
+        <v>-31128186</v>
       </c>
       <c r="F12" s="11">
-        <v>-7921119</v>
+        <v>-41989284</v>
       </c>
       <c r="G12" s="11">
-        <v>-14466354</v>
+        <v>-48770181</v>
       </c>
       <c r="H12" s="11">
-        <v>-15660374</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-14087457</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-26496392</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-37794904</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-31128186</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-41989284</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-34318064</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>8760159</v>
+        <v>56592478</v>
       </c>
       <c r="E13" s="15">
-        <v>11632177</v>
+        <v>35858277</v>
       </c>
       <c r="F13" s="15">
-        <v>20264354</v>
+        <v>86070693</v>
       </c>
       <c r="G13" s="15">
-        <v>32344183</v>
+        <v>93378821</v>
       </c>
       <c r="H13" s="15">
-        <v>26335279</v>
-      </c>
-      <c r="I13" s="15">
-        <v>33846735</v>
-      </c>
-      <c r="J13" s="15">
-        <v>34161907</v>
-      </c>
-      <c r="K13" s="15">
-        <v>56592477</v>
-      </c>
-      <c r="L13" s="15">
-        <v>35858277</v>
-      </c>
-      <c r="M13" s="15">
-        <v>86070693</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>76524748</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-719870</v>
+        <v>-2265379</v>
       </c>
       <c r="E14" s="11">
-        <v>-601082</v>
+        <v>-1341498</v>
       </c>
       <c r="F14" s="11">
-        <v>-6152867</v>
+        <v>-1672323</v>
       </c>
       <c r="G14" s="11">
-        <v>-3831223</v>
+        <v>-33567943</v>
       </c>
       <c r="H14" s="11">
-        <v>-3825327</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-3138203</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1202914</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-2265379</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-1341498</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-1672323</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-3191115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>5961568</v>
+        <v>-169830</v>
       </c>
       <c r="E16" s="11">
-        <v>184977</v>
+        <v>1637527</v>
       </c>
       <c r="F16" s="11">
-        <v>12215707</v>
+        <v>-440850</v>
       </c>
       <c r="G16" s="11">
-        <v>273315</v>
+        <v>10227527</v>
       </c>
       <c r="H16" s="11">
-        <v>3665207</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-2373168</v>
-      </c>
-      <c r="J16" s="11">
-        <v>807037</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-169829</v>
-      </c>
-      <c r="L16" s="11">
-        <v>1637527</v>
-      </c>
-      <c r="M16" s="11">
-        <v>-440850</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1836195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>14001857</v>
+        <v>54157269</v>
       </c>
       <c r="E17" s="15">
-        <v>11216072</v>
+        <v>36154306</v>
       </c>
       <c r="F17" s="15">
-        <v>26327194</v>
+        <v>83957520</v>
       </c>
       <c r="G17" s="15">
-        <v>28786275</v>
+        <v>70038405</v>
       </c>
       <c r="H17" s="15">
-        <v>26175159</v>
-      </c>
-      <c r="I17" s="15">
-        <v>28335364</v>
-      </c>
-      <c r="J17" s="15">
-        <v>36171858</v>
-      </c>
-      <c r="K17" s="15">
-        <v>54157269</v>
-      </c>
-      <c r="L17" s="15">
-        <v>36154306</v>
-      </c>
-      <c r="M17" s="15">
-        <v>83957520</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>75169828</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-168600</v>
+        <v>-258982</v>
       </c>
       <c r="E18" s="11">
-        <v>-218797</v>
+        <v>-179286</v>
       </c>
       <c r="F18" s="11">
-        <v>-260086</v>
+        <v>-149964</v>
       </c>
       <c r="G18" s="11">
-        <v>-77409</v>
+        <v>-477395</v>
       </c>
       <c r="H18" s="11">
-        <v>-172357</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-66393</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-157919</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-258982</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-179286</v>
-      </c>
-      <c r="M18" s="11">
-        <v>-149964</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-484883</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>107408</v>
+        <v>2410362</v>
       </c>
       <c r="E19" s="13">
-        <v>72529</v>
+        <v>3870257</v>
       </c>
       <c r="F19" s="13">
-        <v>541157</v>
+        <v>2820935</v>
       </c>
       <c r="G19" s="13">
-        <v>115810</v>
+        <v>3669171</v>
       </c>
       <c r="H19" s="13">
-        <v>1031846</v>
-      </c>
-      <c r="I19" s="13">
-        <v>1201308</v>
-      </c>
-      <c r="J19" s="13">
-        <v>2176262</v>
-      </c>
-      <c r="K19" s="13">
-        <v>2410362</v>
-      </c>
-      <c r="L19" s="13">
-        <v>3870257</v>
-      </c>
-      <c r="M19" s="13">
-        <v>2820935</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3330336</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>13940665</v>
+        <v>56308649</v>
       </c>
       <c r="E20" s="17">
-        <v>11069804</v>
+        <v>39845277</v>
       </c>
       <c r="F20" s="17">
-        <v>26608265</v>
+        <v>86628491</v>
       </c>
       <c r="G20" s="17">
-        <v>28824676</v>
+        <v>73230181</v>
       </c>
       <c r="H20" s="17">
-        <v>27034648</v>
-      </c>
-      <c r="I20" s="17">
-        <v>29470279</v>
-      </c>
-      <c r="J20" s="17">
-        <v>38190201</v>
-      </c>
-      <c r="K20" s="17">
-        <v>56308649</v>
-      </c>
-      <c r="L20" s="17">
-        <v>39845277</v>
-      </c>
-      <c r="M20" s="17">
-        <v>86628491</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>78015281</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-23282</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
-        <v>-24326</v>
+        <v>-16130</v>
       </c>
       <c r="F21" s="13">
-        <v>-3887</v>
+        <v>16130</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>-184701</v>
       </c>
       <c r="H21" s="13">
-        <v>-26316</v>
-      </c>
-      <c r="I21" s="13">
-        <v>26316</v>
-      </c>
-      <c r="J21" s="13">
-        <v>4597514</v>
-      </c>
-      <c r="K21" s="13">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-16130</v>
-      </c>
-      <c r="M21" s="13">
-        <v>16130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>13917383</v>
+        <v>56308649</v>
       </c>
       <c r="E22" s="17">
-        <v>11045478</v>
+        <v>39829147</v>
       </c>
       <c r="F22" s="17">
-        <v>26604378</v>
+        <v>86644621</v>
       </c>
       <c r="G22" s="17">
-        <v>28824676</v>
+        <v>73045480</v>
       </c>
       <c r="H22" s="17">
-        <v>27008332</v>
-      </c>
-      <c r="I22" s="17">
-        <v>29496595</v>
-      </c>
-      <c r="J22" s="17">
-        <v>42787715</v>
-      </c>
-      <c r="K22" s="17">
-        <v>56308649</v>
-      </c>
-      <c r="L22" s="17">
-        <v>39829147</v>
-      </c>
-      <c r="M22" s="17">
-        <v>86644621</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>78015281</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,104 +992,59 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>13917383</v>
+        <v>56308649</v>
       </c>
       <c r="E24" s="17">
-        <v>11045478</v>
+        <v>39829147</v>
       </c>
       <c r="F24" s="17">
-        <v>26604378</v>
+        <v>86644621</v>
       </c>
       <c r="G24" s="17">
-        <v>28824676</v>
+        <v>73045480</v>
       </c>
       <c r="H24" s="17">
-        <v>27008332</v>
-      </c>
-      <c r="I24" s="17">
-        <v>29496595</v>
-      </c>
-      <c r="J24" s="17">
-        <v>42787715</v>
-      </c>
-      <c r="K24" s="17">
-        <v>56308649</v>
-      </c>
-      <c r="L24" s="17">
-        <v>39829147</v>
-      </c>
-      <c r="M24" s="17">
-        <v>86644621</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>78015281</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>2320</v>
+        <v>9385</v>
       </c>
       <c r="E25" s="13">
-        <v>1841</v>
+        <v>6646</v>
       </c>
       <c r="F25" s="13">
-        <v>4434</v>
+        <v>14441</v>
       </c>
       <c r="G25" s="13">
-        <v>4804</v>
+        <v>12174</v>
       </c>
       <c r="H25" s="13">
-        <v>4501</v>
-      </c>
-      <c r="I25" s="13">
-        <v>4916</v>
-      </c>
-      <c r="J25" s="13">
-        <v>7131</v>
-      </c>
-      <c r="K25" s="13">
-        <v>9385</v>
-      </c>
-      <c r="L25" s="13">
-        <v>6646</v>
-      </c>
-      <c r="M25" s="13">
-        <v>14441</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>13003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
         <v>6000000</v>
       </c>
       <c r="E26" s="11">
-        <v>6000000</v>
+        <v>5992860</v>
       </c>
       <c r="F26" s="11">
         <v>6000000</v>
@@ -1382,59 +1055,29 @@
       <c r="H26" s="11">
         <v>6000000</v>
       </c>
-      <c r="I26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>5992860</v>
-      </c>
-      <c r="M26" s="11">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>2320</v>
+        <v>9385</v>
       </c>
       <c r="E27" s="13">
-        <v>1841</v>
+        <v>6638</v>
       </c>
       <c r="F27" s="13">
-        <v>4434</v>
+        <v>14441</v>
       </c>
       <c r="G27" s="13">
-        <v>4804</v>
+        <v>12174</v>
       </c>
       <c r="H27" s="13">
-        <v>4501</v>
-      </c>
-      <c r="I27" s="13">
-        <v>4916</v>
-      </c>
-      <c r="J27" s="13">
-        <v>7131</v>
-      </c>
-      <c r="K27" s="13">
-        <v>9385</v>
-      </c>
-      <c r="L27" s="13">
-        <v>6638</v>
-      </c>
-      <c r="M27" s="13">
-        <v>14441</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>13003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/urea/shapdis/income/quarterly/rial.xlsx
+++ b/database/industries/urea/shapdis/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789EFEDA-DB76-4A58-960C-99564680258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A12DB8-91A7-402C-A764-B2EE730629C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل اول منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-09-27 (9)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-03-21 (4)</t>
+  </si>
+  <si>
+    <t>1401-05-19 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-05 (9)</t>
   </si>
   <si>
     <t>1401-10-28 (2)</t>
@@ -585,20 +615,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +639,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +655,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +671,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +685,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +701,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +717,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +731,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +757,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +817,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>28185473</v>
+      </c>
+      <c r="E11" s="13">
+        <v>46810537</v>
+      </c>
+      <c r="F11" s="13">
+        <v>41995653</v>
+      </c>
+      <c r="G11" s="13">
+        <v>47934192</v>
+      </c>
+      <c r="H11" s="13">
+        <v>60658299</v>
+      </c>
+      <c r="I11" s="13">
         <v>94387382</v>
       </c>
-      <c r="E11" s="13">
-        <v>66986463</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="J11" s="13">
+        <v>66986462</v>
+      </c>
+      <c r="K11" s="13">
         <v>128059977</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>142149002</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>110842812</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-7921119</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-14466354</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-15660374</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-14087457</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-26496392</v>
+      </c>
+      <c r="I12" s="11">
         <v>-37794904</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-31128186</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-41989284</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-48770181</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-34318064</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>20264354</v>
+      </c>
+      <c r="E13" s="15">
+        <v>32344183</v>
+      </c>
+      <c r="F13" s="15">
+        <v>26335279</v>
+      </c>
+      <c r="G13" s="15">
+        <v>33846735</v>
+      </c>
+      <c r="H13" s="15">
+        <v>34161907</v>
+      </c>
+      <c r="I13" s="15">
         <v>56592478</v>
       </c>
-      <c r="E13" s="15">
-        <v>35858277</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="J13" s="15">
+        <v>35858276</v>
+      </c>
+      <c r="K13" s="15">
         <v>86070693</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>93378821</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>76524748</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-6152867</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-3831223</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-3825327</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-3138203</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1202914</v>
+      </c>
+      <c r="I14" s="11">
         <v>-2265379</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-1341498</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-1672323</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-33567943</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-3191115</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +987,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>12215707</v>
+      </c>
+      <c r="E16" s="11">
+        <v>273315</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3665207</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-2373168</v>
+      </c>
+      <c r="H16" s="11">
+        <v>807037</v>
+      </c>
+      <c r="I16" s="11">
         <v>-169830</v>
       </c>
-      <c r="E16" s="11">
-        <v>1637527</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="J16" s="11">
+        <v>1637528</v>
+      </c>
+      <c r="K16" s="11">
         <v>-440850</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>10227527</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>1836195</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>26327194</v>
+      </c>
+      <c r="E17" s="15">
+        <v>28786275</v>
+      </c>
+      <c r="F17" s="15">
+        <v>26175159</v>
+      </c>
+      <c r="G17" s="15">
+        <v>28335364</v>
+      </c>
+      <c r="H17" s="15">
+        <v>36171858</v>
+      </c>
+      <c r="I17" s="15">
         <v>54157269</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>36154306</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>83957520</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>70038405</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>75169828</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-260086</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-77409</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-172357</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-66393</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-157919</v>
+      </c>
+      <c r="I18" s="11">
         <v>-258982</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-179286</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-149964</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-477395</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-484883</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>541157</v>
+      </c>
+      <c r="E19" s="13">
+        <v>115810</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1031846</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1201308</v>
+      </c>
+      <c r="H19" s="13">
+        <v>2176262</v>
+      </c>
+      <c r="I19" s="13">
         <v>2410362</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>3870257</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>2820935</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>3669171</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>3330336</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>26608265</v>
+      </c>
+      <c r="E20" s="17">
+        <v>28824676</v>
+      </c>
+      <c r="F20" s="17">
+        <v>27034648</v>
+      </c>
+      <c r="G20" s="17">
+        <v>29470279</v>
+      </c>
+      <c r="H20" s="17">
+        <v>38190201</v>
+      </c>
+      <c r="I20" s="17">
         <v>56308649</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>39845277</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>86628491</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>73230181</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>78015281</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>-3887</v>
       </c>
       <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-26316</v>
+      </c>
+      <c r="G21" s="13">
+        <v>26316</v>
+      </c>
+      <c r="H21" s="13">
+        <v>4597514</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
         <v>-16130</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>16130</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-184701</v>
       </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>26604378</v>
+      </c>
+      <c r="E22" s="17">
+        <v>28824676</v>
+      </c>
+      <c r="F22" s="17">
+        <v>27008332</v>
+      </c>
+      <c r="G22" s="17">
+        <v>29496595</v>
+      </c>
+      <c r="H22" s="17">
+        <v>42787715</v>
+      </c>
+      <c r="I22" s="17">
         <v>56308649</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>39829147</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>86644621</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>73045480</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>78015281</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,59 +1275,104 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>26604378</v>
+      </c>
+      <c r="E24" s="17">
+        <v>28824676</v>
+      </c>
+      <c r="F24" s="17">
+        <v>27008332</v>
+      </c>
+      <c r="G24" s="17">
+        <v>29496595</v>
+      </c>
+      <c r="H24" s="17">
+        <v>42787715</v>
+      </c>
+      <c r="I24" s="17">
         <v>56308649</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>39829147</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>86644621</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>73045480</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>78015281</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>4434</v>
+      </c>
+      <c r="E25" s="13">
+        <v>4804</v>
+      </c>
+      <c r="F25" s="13">
+        <v>4501</v>
+      </c>
+      <c r="G25" s="13">
+        <v>4916</v>
+      </c>
+      <c r="H25" s="13">
+        <v>7131</v>
+      </c>
+      <c r="I25" s="13">
         <v>9385</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>6646</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>14441</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>12174</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>13003</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
         <v>6000000</v>
       </c>
       <c r="E26" s="11">
-        <v>5992860</v>
+        <v>6000000</v>
       </c>
       <c r="F26" s="11">
         <v>6000000</v>
@@ -1055,29 +1383,59 @@
       <c r="H26" s="11">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>5992860</v>
+      </c>
+      <c r="K26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>4434</v>
+      </c>
+      <c r="E27" s="13">
+        <v>4804</v>
+      </c>
+      <c r="F27" s="13">
+        <v>4501</v>
+      </c>
+      <c r="G27" s="13">
+        <v>4916</v>
+      </c>
+      <c r="H27" s="13">
+        <v>7131</v>
+      </c>
+      <c r="I27" s="13">
         <v>9385</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>6638</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>14441</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>12174</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>13003</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1443,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/urea/shapdis/income/quarterly/rial.xlsx
+++ b/database/industries/urea/shapdis/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A12DB8-91A7-402C-A764-B2EE730629C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72EA23E-AF0F-4FB0-BE4C-70DA241D159F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل اول منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل اول منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-27 (9)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,16 +85,19 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-03-21 (2)</t>
+    <t>1402-01-30 (3)</t>
   </si>
   <si>
     <t>1401-05-19 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1402-01-30 (4)</t>
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +822,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>28185473</v>
+        <v>46810537</v>
       </c>
       <c r="E11" s="13">
-        <v>46810537</v>
+        <v>41995653</v>
       </c>
       <c r="F11" s="13">
-        <v>41995653</v>
+        <v>47934192</v>
       </c>
       <c r="G11" s="13">
-        <v>47934192</v>
+        <v>60658299</v>
       </c>
       <c r="H11" s="13">
-        <v>60658299</v>
+        <v>94387382</v>
       </c>
       <c r="I11" s="13">
-        <v>94387382</v>
+        <v>66986462</v>
       </c>
       <c r="J11" s="13">
-        <v>66986462</v>
+        <v>128059977</v>
       </c>
       <c r="K11" s="13">
-        <v>128059977</v>
+        <v>142149002</v>
       </c>
       <c r="L11" s="13">
-        <v>142149002</v>
+        <v>110842812</v>
       </c>
       <c r="M11" s="13">
-        <v>110842812</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>70344021</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-7921119</v>
+        <v>-14466354</v>
       </c>
       <c r="E12" s="11">
-        <v>-14466354</v>
+        <v>-15660374</v>
       </c>
       <c r="F12" s="11">
-        <v>-15660374</v>
+        <v>-14087457</v>
       </c>
       <c r="G12" s="11">
-        <v>-14087457</v>
+        <v>-26496392</v>
       </c>
       <c r="H12" s="11">
-        <v>-26496392</v>
+        <v>-37794904</v>
       </c>
       <c r="I12" s="11">
-        <v>-37794904</v>
+        <v>-31128186</v>
       </c>
       <c r="J12" s="11">
-        <v>-31128186</v>
+        <v>-41989284</v>
       </c>
       <c r="K12" s="11">
-        <v>-41989284</v>
+        <v>-48770181</v>
       </c>
       <c r="L12" s="11">
-        <v>-48770181</v>
+        <v>-34318064</v>
       </c>
       <c r="M12" s="11">
-        <v>-34318064</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-30885267</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>20264354</v>
+        <v>32344183</v>
       </c>
       <c r="E13" s="15">
-        <v>32344183</v>
+        <v>26335279</v>
       </c>
       <c r="F13" s="15">
-        <v>26335279</v>
+        <v>33846735</v>
       </c>
       <c r="G13" s="15">
-        <v>33846735</v>
+        <v>34161907</v>
       </c>
       <c r="H13" s="15">
-        <v>34161907</v>
+        <v>56592478</v>
       </c>
       <c r="I13" s="15">
-        <v>56592478</v>
+        <v>35858276</v>
       </c>
       <c r="J13" s="15">
-        <v>35858276</v>
+        <v>86070693</v>
       </c>
       <c r="K13" s="15">
-        <v>86070693</v>
+        <v>93378821</v>
       </c>
       <c r="L13" s="15">
-        <v>93378821</v>
+        <v>76524748</v>
       </c>
       <c r="M13" s="15">
-        <v>76524748</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>39458754</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-6152867</v>
+        <v>-3831223</v>
       </c>
       <c r="E14" s="11">
-        <v>-3831223</v>
+        <v>-3825327</v>
       </c>
       <c r="F14" s="11">
-        <v>-3825327</v>
+        <v>-3138203</v>
       </c>
       <c r="G14" s="11">
-        <v>-3138203</v>
+        <v>1202914</v>
       </c>
       <c r="H14" s="11">
-        <v>1202914</v>
+        <v>-2265379</v>
       </c>
       <c r="I14" s="11">
-        <v>-2265379</v>
+        <v>-1341498</v>
       </c>
       <c r="J14" s="11">
-        <v>-1341498</v>
+        <v>-1672323</v>
       </c>
       <c r="K14" s="11">
-        <v>-1672323</v>
+        <v>-33567943</v>
       </c>
       <c r="L14" s="11">
-        <v>-33567943</v>
+        <v>-3191115</v>
       </c>
       <c r="M14" s="11">
-        <v>-3191115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-43666810</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,259 +1002,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>12215707</v>
+        <v>273315</v>
       </c>
       <c r="E16" s="11">
-        <v>273315</v>
+        <v>3665207</v>
       </c>
       <c r="F16" s="11">
-        <v>3665207</v>
+        <v>-2373168</v>
       </c>
       <c r="G16" s="11">
-        <v>-2373168</v>
+        <v>807037</v>
       </c>
       <c r="H16" s="11">
-        <v>807037</v>
+        <v>-169830</v>
       </c>
       <c r="I16" s="11">
-        <v>-169830</v>
+        <v>1637528</v>
       </c>
       <c r="J16" s="11">
-        <v>1637528</v>
+        <v>-440850</v>
       </c>
       <c r="K16" s="11">
-        <v>-440850</v>
+        <v>10227527</v>
       </c>
       <c r="L16" s="11">
-        <v>10227527</v>
+        <v>1836195</v>
       </c>
       <c r="M16" s="11">
-        <v>1836195</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>21479473</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>26327194</v>
+        <v>28786275</v>
       </c>
       <c r="E17" s="15">
-        <v>28786275</v>
+        <v>26175159</v>
       </c>
       <c r="F17" s="15">
-        <v>26175159</v>
+        <v>28335364</v>
       </c>
       <c r="G17" s="15">
-        <v>28335364</v>
+        <v>36171858</v>
       </c>
       <c r="H17" s="15">
-        <v>36171858</v>
+        <v>54157269</v>
       </c>
       <c r="I17" s="15">
-        <v>54157269</v>
+        <v>36154306</v>
       </c>
       <c r="J17" s="15">
-        <v>36154306</v>
+        <v>83957520</v>
       </c>
       <c r="K17" s="15">
-        <v>83957520</v>
+        <v>70038405</v>
       </c>
       <c r="L17" s="15">
-        <v>70038405</v>
+        <v>75169828</v>
       </c>
       <c r="M17" s="15">
-        <v>75169828</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17271417</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-260086</v>
+        <v>-77409</v>
       </c>
       <c r="E18" s="11">
-        <v>-77409</v>
+        <v>-172357</v>
       </c>
       <c r="F18" s="11">
-        <v>-172357</v>
+        <v>-66393</v>
       </c>
       <c r="G18" s="11">
-        <v>-66393</v>
+        <v>-157919</v>
       </c>
       <c r="H18" s="11">
-        <v>-157919</v>
+        <v>-258982</v>
       </c>
       <c r="I18" s="11">
-        <v>-258982</v>
+        <v>-179286</v>
       </c>
       <c r="J18" s="11">
-        <v>-179286</v>
+        <v>-149964</v>
       </c>
       <c r="K18" s="11">
-        <v>-149964</v>
+        <v>-477395</v>
       </c>
       <c r="L18" s="11">
-        <v>-477395</v>
+        <v>-484883</v>
       </c>
       <c r="M18" s="11">
-        <v>-484883</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-469945</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>541157</v>
+        <v>115810</v>
       </c>
       <c r="E19" s="13">
-        <v>115810</v>
+        <v>1031846</v>
       </c>
       <c r="F19" s="13">
-        <v>1031846</v>
+        <v>1201308</v>
       </c>
       <c r="G19" s="13">
-        <v>1201308</v>
+        <v>2176262</v>
       </c>
       <c r="H19" s="13">
-        <v>2176262</v>
+        <v>2410362</v>
       </c>
       <c r="I19" s="13">
-        <v>2410362</v>
+        <v>3870256</v>
       </c>
       <c r="J19" s="13">
-        <v>3870257</v>
+        <v>2820935</v>
       </c>
       <c r="K19" s="13">
-        <v>2820935</v>
+        <v>3669171</v>
       </c>
       <c r="L19" s="13">
-        <v>3669171</v>
+        <v>3330336</v>
       </c>
       <c r="M19" s="13">
-        <v>3330336</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12255816</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>26608265</v>
+        <v>28824676</v>
       </c>
       <c r="E20" s="17">
-        <v>28824676</v>
+        <v>27034648</v>
       </c>
       <c r="F20" s="17">
-        <v>27034648</v>
+        <v>29470279</v>
       </c>
       <c r="G20" s="17">
-        <v>29470279</v>
+        <v>38190201</v>
       </c>
       <c r="H20" s="17">
-        <v>38190201</v>
+        <v>56308649</v>
       </c>
       <c r="I20" s="17">
-        <v>56308649</v>
+        <v>39845276</v>
       </c>
       <c r="J20" s="17">
-        <v>39845277</v>
+        <v>86628491</v>
       </c>
       <c r="K20" s="17">
-        <v>86628491</v>
+        <v>73230181</v>
       </c>
       <c r="L20" s="17">
-        <v>73230181</v>
+        <v>78015281</v>
       </c>
       <c r="M20" s="17">
-        <v>78015281</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>29057288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-3887</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>-26316</v>
       </c>
       <c r="F21" s="13">
-        <v>-26316</v>
+        <v>26316</v>
       </c>
       <c r="G21" s="13">
-        <v>26316</v>
+        <v>4597514</v>
       </c>
       <c r="H21" s="13">
-        <v>4597514</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13">
-        <v>0</v>
+        <v>-16130</v>
       </c>
       <c r="J21" s="13">
-        <v>-16130</v>
+        <v>16130</v>
       </c>
       <c r="K21" s="13">
-        <v>16130</v>
+        <v>-184701</v>
       </c>
       <c r="L21" s="13">
-        <v>-184701</v>
+        <v>0</v>
       </c>
       <c r="M21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-41198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>26604378</v>
+        <v>28824676</v>
       </c>
       <c r="E22" s="17">
-        <v>28824676</v>
+        <v>27008332</v>
       </c>
       <c r="F22" s="17">
-        <v>27008332</v>
+        <v>29496595</v>
       </c>
       <c r="G22" s="17">
-        <v>29496595</v>
+        <v>42787715</v>
       </c>
       <c r="H22" s="17">
-        <v>42787715</v>
+        <v>56308649</v>
       </c>
       <c r="I22" s="17">
-        <v>56308649</v>
+        <v>39829146</v>
       </c>
       <c r="J22" s="17">
-        <v>39829147</v>
+        <v>86644621</v>
       </c>
       <c r="K22" s="17">
-        <v>86644621</v>
+        <v>73045480</v>
       </c>
       <c r="L22" s="17">
-        <v>73045480</v>
+        <v>78015281</v>
       </c>
       <c r="M22" s="17">
-        <v>78015281</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>29016090</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,79 +1290,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>26604378</v>
+        <v>28824676</v>
       </c>
       <c r="E24" s="17">
-        <v>28824676</v>
+        <v>27008332</v>
       </c>
       <c r="F24" s="17">
-        <v>27008332</v>
+        <v>29496595</v>
       </c>
       <c r="G24" s="17">
-        <v>29496595</v>
+        <v>42787715</v>
       </c>
       <c r="H24" s="17">
-        <v>42787715</v>
+        <v>56308649</v>
       </c>
       <c r="I24" s="17">
-        <v>56308649</v>
+        <v>39829146</v>
       </c>
       <c r="J24" s="17">
-        <v>39829147</v>
+        <v>86644621</v>
       </c>
       <c r="K24" s="17">
-        <v>86644621</v>
+        <v>73045480</v>
       </c>
       <c r="L24" s="17">
-        <v>73045480</v>
+        <v>78015281</v>
       </c>
       <c r="M24" s="17">
-        <v>78015281</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>29016090</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>4434</v>
+        <v>4804</v>
       </c>
       <c r="E25" s="13">
-        <v>4804</v>
+        <v>4501</v>
       </c>
       <c r="F25" s="13">
-        <v>4501</v>
+        <v>4916</v>
       </c>
       <c r="G25" s="13">
-        <v>4916</v>
+        <v>7131</v>
       </c>
       <c r="H25" s="13">
-        <v>7131</v>
+        <v>9385</v>
       </c>
       <c r="I25" s="13">
-        <v>9385</v>
+        <v>6638</v>
       </c>
       <c r="J25" s="13">
-        <v>6646</v>
+        <v>14441</v>
       </c>
       <c r="K25" s="13">
-        <v>14441</v>
+        <v>12174</v>
       </c>
       <c r="L25" s="13">
-        <v>12174</v>
+        <v>13003</v>
       </c>
       <c r="M25" s="13">
-        <v>13003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>6000000</v>
       </c>
       <c r="J26" s="11">
-        <v>5992860</v>
+        <v>6000000</v>
       </c>
       <c r="K26" s="11">
         <v>6000000</v>
@@ -1399,43 +1398,43 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>4434</v>
+        <v>4804</v>
       </c>
       <c r="E27" s="13">
-        <v>4804</v>
+        <v>4501</v>
       </c>
       <c r="F27" s="13">
-        <v>4501</v>
+        <v>4916</v>
       </c>
       <c r="G27" s="13">
-        <v>4916</v>
+        <v>7131</v>
       </c>
       <c r="H27" s="13">
-        <v>7131</v>
+        <v>9385</v>
       </c>
       <c r="I27" s="13">
-        <v>9385</v>
+        <v>6638</v>
       </c>
       <c r="J27" s="13">
-        <v>6638</v>
+        <v>14441</v>
       </c>
       <c r="K27" s="13">
-        <v>14441</v>
+        <v>12174</v>
       </c>
       <c r="L27" s="13">
-        <v>12174</v>
+        <v>13003</v>
       </c>
       <c r="M27" s="13">
-        <v>13003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
